--- a/DataAnalysis.xlsx
+++ b/DataAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Trainer Tournament\TrainerTournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36233E70-F809-42FA-AA85-75470BC407D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D73936C9-E311-483D-956B-FA00E5357804}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="464">
   <si>
     <t>alola</t>
   </si>
@@ -1406,6 +1406,12 @@
   </si>
   <si>
     <t>Victory_Road_(Black_2_and_White_2)</t>
+  </si>
+  <si>
+    <t>wildMod</t>
+  </si>
+  <si>
+    <t>trainerMod</t>
   </si>
 </sst>
 </file>
@@ -1889,8 +1895,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1936,7 +1943,18 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2248,19 +2266,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E662"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L548" sqref="L548"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2788,15 +2814,15 @@
         <v>59.231818181818198</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:3" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -3148,15 +3174,15 @@
         <v>53.6041666666666</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="83" spans="1:5" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -3165,6 +3191,12 @@
       </c>
       <c r="C84" t="s">
         <v>86</v>
+      </c>
+      <c r="D84" t="s">
+        <v>462</v>
+      </c>
+      <c r="E84" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -4357,15 +4389,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+    <row r="155" spans="1:5" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>84</v>
       </c>
@@ -4374,6 +4406,12 @@
       </c>
       <c r="C156" t="s">
         <v>86</v>
+      </c>
+      <c r="D156" t="s">
+        <v>462</v>
+      </c>
+      <c r="E156" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -5566,15 +5604,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+    <row r="227" spans="1:5" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A227" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>84</v>
       </c>
@@ -5583,6 +5621,12 @@
       </c>
       <c r="C228" t="s">
         <v>86</v>
+      </c>
+      <c r="D228" t="s">
+        <v>462</v>
+      </c>
+      <c r="E228" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -6486,15 +6530,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+    <row r="282" spans="1:5" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>84</v>
       </c>
@@ -6503,6 +6547,12 @@
       </c>
       <c r="C283" t="s">
         <v>86</v>
+      </c>
+      <c r="D283" t="s">
+        <v>462</v>
+      </c>
+      <c r="E283" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -7406,15 +7456,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
+    <row r="337" spans="1:5" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A337" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>84</v>
       </c>
@@ -7423,6 +7473,12 @@
       </c>
       <c r="C338" t="s">
         <v>86</v>
+      </c>
+      <c r="D338" t="s">
+        <v>462</v>
+      </c>
+      <c r="E338" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -8309,15 +8365,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
+    <row r="391" spans="1:5" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A391" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B391" t="s">
+      <c r="B391" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>84</v>
       </c>
@@ -8326,6 +8382,12 @@
       </c>
       <c r="C392" t="s">
         <v>86</v>
+      </c>
+      <c r="D392" t="s">
+        <v>462</v>
+      </c>
+      <c r="E392" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
@@ -9178,15 +9240,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A443" t="s">
+    <row r="443" spans="1:5" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A443" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B443" t="s">
+      <c r="B443" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>84</v>
       </c>
@@ -9195,6 +9257,12 @@
       </c>
       <c r="C444" t="s">
         <v>86</v>
+      </c>
+      <c r="D444" t="s">
+        <v>462</v>
+      </c>
+      <c r="E444" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
@@ -10047,15 +10115,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A495" t="s">
+    <row r="495" spans="1:5" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A495" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B495" t="s">
+      <c r="B495" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>84</v>
       </c>
@@ -10064,6 +10132,12 @@
       </c>
       <c r="C496" t="s">
         <v>86</v>
+      </c>
+      <c r="D496" t="s">
+        <v>462</v>
+      </c>
+      <c r="E496" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
@@ -11205,15 +11279,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A564" t="s">
+    <row r="564" spans="1:5" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A564" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B564" t="s">
+      <c r="B564" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>84</v>
       </c>
@@ -11222,6 +11296,12 @@
       </c>
       <c r="C565" t="s">
         <v>86</v>
+      </c>
+      <c r="D565" t="s">
+        <v>462</v>
+      </c>
+      <c r="E565" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.25">
@@ -12023,15 +12103,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A613" t="s">
+    <row r="613" spans="1:5" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A613" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B613" t="s">
+      <c r="B613" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>84</v>
       </c>
@@ -12040,6 +12120,12 @@
       </c>
       <c r="C614" t="s">
         <v>86</v>
+      </c>
+      <c r="D614" t="s">
+        <v>462</v>
+      </c>
+      <c r="E614" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.25">
@@ -12859,6 +12945,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D1:E1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>